--- a/data/trans_orig/Q5403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7760</v>
+        <v>7287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009482543375170951</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002846344264660946</v>
+        <v>0.00284492046828701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02652232311018311</v>
+        <v>0.02490736952215707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11309</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5777</v>
+        <v>5774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19256</v>
+        <v>18912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03297719378435941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01684656096499399</v>
+        <v>0.01683673640468847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05614977986365929</v>
+        <v>0.05514812774807479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>14083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8780</v>
+        <v>8346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22093</v>
+        <v>22719</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02216059042978768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0138153260759739</v>
+        <v>0.01313205127525526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03476447978149594</v>
+        <v>0.03574831831315171</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5409</v>
+        <v>5624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17826</v>
+        <v>18777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03705244696463759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01848876190309874</v>
+        <v>0.0192227685645598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06092731168290205</v>
+        <v>0.06417829076308511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>32166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23106</v>
+        <v>23026</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43482</v>
+        <v>43841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0937975319611495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06737703655698196</v>
+        <v>0.06714535994421876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1267930709864432</v>
+        <v>0.1278404320102481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -857,19 +857,19 @@
         <v>43007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31915</v>
+        <v>31854</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56631</v>
+        <v>56662</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06767290077750425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05021883238674885</v>
+        <v>0.0501231369135308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08910938986790376</v>
+        <v>0.0891593000912479</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>278968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>270967</v>
+        <v>270171</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285000</v>
+        <v>285092</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9534650096601914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9261198340065051</v>
+        <v>0.9233997072230401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9740835393219883</v>
+        <v>0.9743983795636104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>325</v>
@@ -907,19 +907,19 @@
         <v>299459</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>286691</v>
+        <v>287165</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309435</v>
+        <v>310285</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.873225274254491</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.835993981459869</v>
+        <v>0.8373763324971533</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9023164020237666</v>
+        <v>0.9047963003977543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -928,19 +928,19 @@
         <v>578426</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>562623</v>
+        <v>563852</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>590418</v>
+        <v>591884</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9101665087927081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8852996480382317</v>
+        <v>0.8872333794697025</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9290354599275867</v>
+        <v>0.9313423825486938</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>17510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10997</v>
+        <v>11062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27223</v>
+        <v>26464</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08342817792960568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05239415666985191</v>
+        <v>0.0527051975402911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1297060312787794</v>
+        <v>0.1260887299569658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1053,19 +1053,19 @@
         <v>43948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32930</v>
+        <v>32438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56809</v>
+        <v>57565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1316157163510673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09862111531850788</v>
+        <v>0.09714627999267814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1701334668058726</v>
+        <v>0.1723985247209882</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1074,19 +1074,19 @@
         <v>61458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46553</v>
+        <v>48161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76587</v>
+        <v>79136</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1130171270581569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08560881778029866</v>
+        <v>0.08856601299504618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1408388961535231</v>
+        <v>0.1455263508334211</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>29325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20591</v>
+        <v>20573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40135</v>
+        <v>39861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1397201509571453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09810873003882574</v>
+        <v>0.09802037049620498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1912241569336474</v>
+        <v>0.1899222543841287</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>54</v>
@@ -1124,19 +1124,19 @@
         <v>62581</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>46961</v>
+        <v>49371</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78097</v>
+        <v>80300</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1874204585421077</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1406402932250971</v>
+        <v>0.1478583675453112</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2338887071906714</v>
+        <v>0.2404846801331702</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1145,19 +1145,19 @@
         <v>91906</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>74465</v>
+        <v>73240</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>109385</v>
+        <v>108886</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1690099221466006</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1369364285053706</v>
+        <v>0.134684738369787</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2011517481209423</v>
+        <v>0.2002342950887471</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>163048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149902</v>
+        <v>150615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174075</v>
+        <v>174002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.776851671113249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.714216777712928</v>
+        <v>0.7176160857927565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8293919446160926</v>
+        <v>0.8290441265027083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>197</v>
@@ -1195,19 +1195,19 @@
         <v>227379</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208416</v>
+        <v>210012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244516</v>
+        <v>245261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6809638251068251</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6241731653962395</v>
+        <v>0.6289517786862558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7322853850383939</v>
+        <v>0.7345158341637381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1216,19 +1216,19 @@
         <v>390427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>368048</v>
+        <v>369030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>412725</v>
+        <v>412198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7179729507952425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6768190918521991</v>
+        <v>0.6786241025072216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7589769643563314</v>
+        <v>0.7580075548143512</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>20285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13043</v>
+        <v>13707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29350</v>
+        <v>30249</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04037007294722576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02595790127949391</v>
+        <v>0.02727975918907561</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05841162013131979</v>
+        <v>0.06020159891334523</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1341,19 +1341,19 @@
         <v>55257</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41050</v>
+        <v>42509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72117</v>
+        <v>73004</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08163876367045232</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06064990420222593</v>
+        <v>0.06280541976522044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1065495363373529</v>
+        <v>0.1078591556710384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -1362,19 +1362,19 @@
         <v>75541</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59602</v>
+        <v>58788</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94069</v>
+        <v>92831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06405547404745575</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05053981157945576</v>
+        <v>0.04984994358657179</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07976608851931895</v>
+        <v>0.07871643945211088</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>40166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29083</v>
+        <v>29398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54246</v>
+        <v>53924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07993735507681454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0578807022030773</v>
+        <v>0.05850785438250945</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1079602621196252</v>
+        <v>0.1073185004957643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1412,19 +1412,19 @@
         <v>94748</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76619</v>
+        <v>78046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113785</v>
+        <v>114321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1399847463091624</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1132000463322732</v>
+        <v>0.1153090662107757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1681117676071608</v>
+        <v>0.1689037662487529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -1433,19 +1433,19 @@
         <v>134913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113567</v>
+        <v>112857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157792</v>
+        <v>157902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1144004437146165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09629962637654239</v>
+        <v>0.09569746602334878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1338007787114317</v>
+        <v>0.1338940362963451</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>442016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426540</v>
+        <v>426991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>455207</v>
+        <v>454178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8796925719759597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8488941350133183</v>
+        <v>0.8497902315861281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9059458618658085</v>
+        <v>0.9038975820684862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -1483,19 +1483,19 @@
         <v>526838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>502623</v>
+        <v>504644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>546689</v>
+        <v>548216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7783764900203852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7426001766360397</v>
+        <v>0.7455857230946255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8077049347681514</v>
+        <v>0.8099618304640137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>981</v>
@@ -1504,19 +1504,19 @@
         <v>968854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>940898</v>
+        <v>941056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>996459</v>
+        <v>996341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8215440822379277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7978392509410759</v>
+        <v>0.7979730295827008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8449519285314004</v>
+        <v>0.8448521907156873</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>13134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7199</v>
+        <v>7186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21437</v>
+        <v>21062</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04239737198198729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0232395074618629</v>
+        <v>0.0231966755423355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06919934848753878</v>
+        <v>0.06798854866225312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -1867,19 +1867,19 @@
         <v>18695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11687</v>
+        <v>11493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30525</v>
+        <v>30768</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05281011196055541</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03301402230602909</v>
+        <v>0.03246746725449427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08623070665967954</v>
+        <v>0.08691555667945947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -1888,19 +1888,19 @@
         <v>31829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20958</v>
+        <v>22072</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44310</v>
+        <v>44144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0479505013062192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03157326424215016</v>
+        <v>0.03325204987680577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06675403892179239</v>
+        <v>0.06650369652540862</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>15576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8974</v>
+        <v>9017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26278</v>
+        <v>26542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05028137869507335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02896786917051484</v>
+        <v>0.02910832814971848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08482484415882791</v>
+        <v>0.08567930666943462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -1938,19 +1938,19 @@
         <v>27433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18847</v>
+        <v>19038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39198</v>
+        <v>40585</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07749546215002628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05324048531111324</v>
+        <v>0.0537792632221319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.110729592783966</v>
+        <v>0.1146474203896373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -1959,19 +1959,19 @@
         <v>43010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30136</v>
+        <v>31463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56753</v>
+        <v>59528</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06479468884944588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04540047523371834</v>
+        <v>0.04740031287971435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08549905077037877</v>
+        <v>0.08967941920432633</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>281075</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>268922</v>
+        <v>267788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>290401</v>
+        <v>289990</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9073212493229393</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8680899190034956</v>
+        <v>0.8644301934711717</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.93742376443422</v>
+        <v>0.9360969312322399</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>300</v>
@@ -2009,19 +2009,19 @@
         <v>307868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>291732</v>
+        <v>291830</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>318890</v>
+        <v>319112</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8696944258894183</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8241113395898203</v>
+        <v>0.8243890942857613</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9008296802590576</v>
+        <v>0.9014572007369445</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>556</v>
@@ -2030,19 +2030,19 @@
         <v>588944</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>572726</v>
+        <v>567748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>607252</v>
+        <v>604340</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8872548098443349</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8628230011933895</v>
+        <v>0.8553223348997903</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9148372223091513</v>
+        <v>0.9104501858598244</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>37518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27442</v>
+        <v>26609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52013</v>
+        <v>52101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1501606608355624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1098317372092618</v>
+        <v>0.1064979098302564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2081780578069669</v>
+        <v>0.2085282095522363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -2155,19 +2155,19 @@
         <v>93310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76866</v>
+        <v>76109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111771</v>
+        <v>111969</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2398837973511793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1976098723370961</v>
+        <v>0.1956629595344358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2873439953931637</v>
+        <v>0.2878541479195864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>116</v>
@@ -2176,19 +2176,19 @@
         <v>130828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108990</v>
+        <v>110938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>153107</v>
+        <v>155523</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.204792446823153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1706093696849935</v>
+        <v>0.1736580888153166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2396676967091857</v>
+        <v>0.2434500146621837</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>44917</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32824</v>
+        <v>33340</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59288</v>
+        <v>57541</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1797744872042625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1313760759561466</v>
+        <v>0.1334409456921977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2372936396150077</v>
+        <v>0.2303031973943874</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -2226,19 +2226,19 @@
         <v>75473</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60884</v>
+        <v>60109</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93593</v>
+        <v>92311</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1940279441606225</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.15652213228001</v>
+        <v>0.1545306627449614</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2406118523524873</v>
+        <v>0.2373167526153585</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>108</v>
@@ -2247,19 +2247,19 @@
         <v>120390</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>101294</v>
+        <v>99730</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>140655</v>
+        <v>141782</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.188453316771123</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1585617772998971</v>
+        <v>0.1561131537900639</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2201757279682338</v>
+        <v>0.2219393538563255</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>167416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150109</v>
+        <v>151085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181809</v>
+        <v>184209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6700648519601752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6007945274849474</v>
+        <v>0.6047015911335193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7276686715621172</v>
+        <v>0.7372772248594494</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -2297,19 +2297,19 @@
         <v>220196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200039</v>
+        <v>200525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240336</v>
+        <v>240987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5660882584881982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5142664255088327</v>
+        <v>0.5155157570465624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6178628983985248</v>
+        <v>0.6195382772488546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -2318,19 +2318,19 @@
         <v>387613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>361699</v>
+        <v>359350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>413618</v>
+        <v>413169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.606754236405724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5661892525194622</v>
+        <v>0.5625123519074048</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6474617973190891</v>
+        <v>0.6467595849322826</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>50652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37615</v>
+        <v>37541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65909</v>
+        <v>67310</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09050846534662826</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06721275133572407</v>
+        <v>0.06708170626260658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1177716558420664</v>
+        <v>0.1202745726958644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>102</v>
@@ -2443,19 +2443,19 @@
         <v>112004</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92629</v>
+        <v>92968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131890</v>
+        <v>132744</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1507511393561164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1246735803464422</v>
+        <v>0.1251287485832453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.177516726392711</v>
+        <v>0.1786657062216644</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -2464,19 +2464,19 @@
         <v>162656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138005</v>
+        <v>140410</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190016</v>
+        <v>188604</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1248692722726213</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1059446797446546</v>
+        <v>0.1077913092369085</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1458734125890893</v>
+        <v>0.1447889309448579</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>60493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47505</v>
+        <v>46133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78780</v>
+        <v>77299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1080937849406581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08488491685048921</v>
+        <v>0.08243311768992284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1407698905921389</v>
+        <v>0.1381236588630141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -2514,19 +2514,19 @@
         <v>102906</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85206</v>
+        <v>86512</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121907</v>
+        <v>124358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1385051706466578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1146820850083425</v>
+        <v>0.1164402114537864</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1640799677989869</v>
+        <v>0.1673780130375278</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -2535,19 +2535,19 @@
         <v>163399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141023</v>
+        <v>140090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192287</v>
+        <v>190553</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1254396244103865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1082617965508699</v>
+        <v>0.107545329711545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.14761675040399</v>
+        <v>0.1462851659771111</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>448492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427264</v>
+        <v>428171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>468190</v>
+        <v>469295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8013977497127136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7634662251781578</v>
+        <v>0.7650878338277133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8365959784909052</v>
+        <v>0.8385699890444683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>498</v>
@@ -2585,19 +2585,19 @@
         <v>528065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>499650</v>
+        <v>501349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>552579</v>
+        <v>552369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7107436899972257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6724990991997355</v>
+        <v>0.6747851656101267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.743738430343164</v>
+        <v>0.7434560118390338</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>904</v>
@@ -2606,19 +2606,19 @@
         <v>976557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>941168</v>
+        <v>944417</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1009635</v>
+        <v>1006310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7496911033169922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7225235749429935</v>
+        <v>0.7250180880999877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.775084703731141</v>
+        <v>0.7725323296245782</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>7537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3531</v>
+        <v>3025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14943</v>
+        <v>15512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02254413087073775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01056058134810158</v>
+        <v>0.009049191597732964</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04469576511430159</v>
+        <v>0.04639816954956602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2969,19 +2969,19 @@
         <v>9039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4137</v>
+        <v>4121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17168</v>
+        <v>16751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02392823806158605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01095227675223075</v>
+        <v>0.01090984172655921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04544790462867664</v>
+        <v>0.04434200072993418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2990,19 +2990,19 @@
         <v>16576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9981</v>
+        <v>9292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27533</v>
+        <v>26033</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02327839428476416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01401578854251988</v>
+        <v>0.01304905357862399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0386646320532262</v>
+        <v>0.03655906912817634</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>12028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6168</v>
+        <v>6913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20396</v>
+        <v>20453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03597617166902925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01844751551361638</v>
+        <v>0.02067680230229609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06100519918799284</v>
+        <v>0.06117502928984819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3040,19 +3040,19 @@
         <v>34176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23749</v>
+        <v>24230</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46733</v>
+        <v>46305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09047014721021431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0628677388236917</v>
+        <v>0.06413980098935358</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1237104917245045</v>
+        <v>0.1225774341851217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -3061,19 +3061,19 @@
         <v>46204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34540</v>
+        <v>33317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60832</v>
+        <v>60155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06488501109223827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04850433929024962</v>
+        <v>0.04678806919602702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08542662441081075</v>
+        <v>0.08447663142450568</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>314765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>304301</v>
+        <v>304208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>321792</v>
+        <v>321906</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.941479697460233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.910180345476745</v>
+        <v>0.9099048269442468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9624976683694241</v>
+        <v>0.9628381688286166</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>313</v>
@@ -3111,19 +3111,19 @@
         <v>334547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>320411</v>
+        <v>321909</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>346771</v>
+        <v>346522</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8856016147281996</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.84818110805358</v>
+        <v>0.8521485857975926</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9179623567371339</v>
+        <v>0.91730270508237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>619</v>
@@ -3132,19 +3132,19 @@
         <v>649312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>631627</v>
+        <v>632427</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>662799</v>
+        <v>664012</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9118365946229976</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8870025795651658</v>
+        <v>0.8881247097745418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9307778982641105</v>
+        <v>0.9324809053564519</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>31556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22366</v>
+        <v>22197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40838</v>
+        <v>42143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1227862002980735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08702785259600175</v>
+        <v>0.08637223652407326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1589053597239913</v>
+        <v>0.163983764782272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3257,19 +3257,19 @@
         <v>61717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47608</v>
+        <v>44941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79961</v>
+        <v>78071</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1542265957366779</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1189703283434216</v>
+        <v>0.1123059046301461</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1998173435376036</v>
+        <v>0.1950950385052585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -3278,19 +3278,19 @@
         <v>93273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75796</v>
+        <v>74461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114063</v>
+        <v>111808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1419312145408471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1153379476227597</v>
+        <v>0.1133054704952956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1735673221395423</v>
+        <v>0.1701369264881892</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>29798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20317</v>
+        <v>21164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41815</v>
+        <v>39425</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1159464237849705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07905537822978839</v>
+        <v>0.0823504113849832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1627056996623407</v>
+        <v>0.1534076052185038</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -3328,19 +3328,19 @@
         <v>90358</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71275</v>
+        <v>72211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>111265</v>
+        <v>110909</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2257996298589613</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1781128947388062</v>
+        <v>0.1804508723165661</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2780440736823332</v>
+        <v>0.2771548216614454</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>100</v>
@@ -3349,19 +3349,19 @@
         <v>120156</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>100021</v>
+        <v>100477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141502</v>
+        <v>142718</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1828393863435311</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1521999927608211</v>
+        <v>0.1528949114368655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2153207035562302</v>
+        <v>0.2171717888898747</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>195644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182174</v>
+        <v>183728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208563</v>
+        <v>207973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.761267375916956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.708853013659862</v>
+        <v>0.7148992338410718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8115336211071839</v>
+        <v>0.809241251084293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -3399,19 +3399,19 @@
         <v>248094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>227486</v>
+        <v>226720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268307</v>
+        <v>271069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6199737744043607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5684745952853782</v>
+        <v>0.5665609986538237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6704839852856979</v>
+        <v>0.6773873089634393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>419</v>
@@ -3420,19 +3420,19 @@
         <v>443738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>417242</v>
+        <v>417250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>468247</v>
+        <v>469309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6752293991156219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6349108901709815</v>
+        <v>0.6349223851933362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7125233583816668</v>
+        <v>0.714139657257006</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>39093</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29062</v>
+        <v>29997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53615</v>
+        <v>52359</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06611049591069795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04914663216630341</v>
+        <v>0.05072884122736237</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0906695067617083</v>
+        <v>0.08854480080657992</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -3545,19 +3545,19 @@
         <v>70756</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53359</v>
+        <v>52682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>88232</v>
+        <v>90772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09095392975087727</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06859043723708724</v>
+        <v>0.06772116815166836</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1134187349666733</v>
+        <v>0.1166843394457081</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -3566,19 +3566,19 @@
         <v>109849</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90546</v>
+        <v>89065</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>131566</v>
+        <v>131769</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08022504790784506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06612789987296766</v>
+        <v>0.06504591317879024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09608550872096951</v>
+        <v>0.09623397784581368</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>41826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31696</v>
+        <v>31087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56343</v>
+        <v>54726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0707321699831529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05360155891404233</v>
+        <v>0.05257069512172245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09528245368099603</v>
+        <v>0.09254840867258556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -3616,19 +3616,19 @@
         <v>124534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103088</v>
+        <v>102847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146498</v>
+        <v>147386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1600838579455734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1325158331099426</v>
+        <v>0.1322055614959096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1883178377924776</v>
+        <v>0.189458584285868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -3637,19 +3637,19 @@
         <v>166360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141983</v>
+        <v>143491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191986</v>
+        <v>192918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1214964505528853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1036933367393525</v>
+        <v>0.104794337734605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1402114200852777</v>
+        <v>0.1408919130155082</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>510409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494457</v>
+        <v>494789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>526117</v>
+        <v>525322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8631573341061491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8361799478138719</v>
+        <v>0.8367421592812853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8897217928248695</v>
+        <v>0.8883771092004543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>500</v>
@@ -3687,19 +3687,19 @@
         <v>582641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>556920</v>
+        <v>552626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606966</v>
+        <v>609716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7489622123035493</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7158991537845026</v>
+        <v>0.710378649355128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7802317059902845</v>
+        <v>0.7837662064635542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1038</v>
@@ -3708,19 +3708,19 @@
         <v>1093050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1061370</v>
+        <v>1064110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1125016</v>
+        <v>1125038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7982785015392696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.77514216121471</v>
+        <v>0.7771431740235821</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8216240988430077</v>
+        <v>0.8216401704103182</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>9143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5196</v>
+        <v>5439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15185</v>
+        <v>15505</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0225240638835647</v>
+        <v>0.02252406388356469</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0128008940968501</v>
+        <v>0.01339848260535872</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03740966437627951</v>
+        <v>0.03819935611025968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4071,19 +4071,19 @@
         <v>16876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11511</v>
+        <v>11555</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23141</v>
+        <v>23753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03846515356530806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02623792694003976</v>
+        <v>0.02633702201563464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05274384420300398</v>
+        <v>0.05413928634044831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -4092,19 +4092,19 @@
         <v>26019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19476</v>
+        <v>18769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35113</v>
+        <v>34104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03080440313962129</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02305866705618603</v>
+        <v>0.02222123809645472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04157136162257737</v>
+        <v>0.04037710286393765</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>22069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15001</v>
+        <v>15091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30398</v>
+        <v>30808</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05436889341116258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03695616810892224</v>
+        <v>0.03717941157390481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07489032000306749</v>
+        <v>0.07590021447376298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -4142,19 +4142,19 @@
         <v>43302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34772</v>
+        <v>33988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52074</v>
+        <v>52675</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09869815570303335</v>
+        <v>0.09869815570303336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07925613022937772</v>
+        <v>0.07746769969324634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1186911373002012</v>
+        <v>0.1200615352238263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -4163,19 +4163,19 @@
         <v>65371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54303</v>
+        <v>54323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78524</v>
+        <v>78695</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07739500631031941</v>
+        <v>0.07739500631031943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06429087982691828</v>
+        <v>0.064315041250737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09296710840186334</v>
+        <v>0.09316987727472732</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>374694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>365482</v>
+        <v>364325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>382798</v>
+        <v>382521</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9231070427052727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9004133194782658</v>
+        <v>0.8975631619206165</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9430739893223987</v>
+        <v>0.9423913430705891</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>717</v>
@@ -4213,19 +4213,19 @@
         <v>378556</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>367915</v>
+        <v>367760</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>388027</v>
+        <v>388999</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8628366907316585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.838583584380858</v>
+        <v>0.8382298664375218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8844247461163105</v>
+        <v>0.8866392386628904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1237</v>
@@ -4234,19 +4234,19 @@
         <v>753250</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>738183</v>
+        <v>738078</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>765296</v>
+        <v>766591</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8918005905500593</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8739619461040303</v>
+        <v>0.8738372303726066</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9060617503703976</v>
+        <v>0.9075947921777958</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>39089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29937</v>
+        <v>29934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49458</v>
+        <v>49273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1270237181744968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09728217543156349</v>
+        <v>0.09727325127384032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.160718851670734</v>
+        <v>0.1601182711801002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>229</v>
@@ -4359,19 +4359,19 @@
         <v>122738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>107756</v>
+        <v>108845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>138708</v>
+        <v>137605</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2641741981986709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2319292160323684</v>
+        <v>0.2342718561272688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2985474837141225</v>
+        <v>0.2961745389481326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>292</v>
@@ -4380,19 +4380,19 @@
         <v>161827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144634</v>
+        <v>145751</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179075</v>
+        <v>180578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2095281560612912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1872673208388569</v>
+        <v>0.1887143053318535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2318608593136675</v>
+        <v>0.2338072971756856</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>46524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37318</v>
+        <v>37221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59075</v>
+        <v>57670</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1511839036964001</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1212704726767039</v>
+        <v>0.120952519236413</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1919698951131882</v>
+        <v>0.1874067630201264</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>212</v>
@@ -4430,19 +4430,19 @@
         <v>110622</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97769</v>
+        <v>97761</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>126417</v>
+        <v>124631</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2380961090032355</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2104318636207144</v>
+        <v>0.2104162666983379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2720926169979777</v>
+        <v>0.2682499634547845</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>279</v>
@@ -4451,19 +4451,19 @@
         <v>157145</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139832</v>
+        <v>140770</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>174444</v>
+        <v>174263</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2034669335704349</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1810506691132836</v>
+        <v>0.1822650180490437</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2258651404383963</v>
+        <v>0.2256307677249326</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>222116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208781</v>
+        <v>207954</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235520</v>
+        <v>234650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7217923781291031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6784569598686442</v>
+        <v>0.6757697310663642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7653491033393327</v>
+        <v>0.7625215152145468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>440</v>
@@ -4501,19 +4501,19 @@
         <v>231250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215075</v>
+        <v>216173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>247904</v>
+        <v>247701</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4977296927980935</v>
+        <v>0.4977296927980934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4629157160012647</v>
+        <v>0.4652799374123383</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5335765986682868</v>
+        <v>0.5331379657632374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>765</v>
@@ -4522,19 +4522,19 @@
         <v>453366</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>434648</v>
+        <v>432203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>474721</v>
+        <v>474551</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5870049103682738</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5627687126633708</v>
+        <v>0.5596031193666633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6146546727064762</v>
+        <v>0.6144346864544453</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>48232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37591</v>
+        <v>38254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59977</v>
+        <v>60183</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06758578435871293</v>
+        <v>0.06758578435871294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05267498028141861</v>
+        <v>0.05360382660976546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08404452757589176</v>
+        <v>0.08433275710372994</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>258</v>
@@ -4647,19 +4647,19 @@
         <v>139614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123544</v>
+        <v>122984</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>157087</v>
+        <v>156058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1545521737692366</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1367630416819726</v>
+        <v>0.1361432367425532</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1738949906103811</v>
+        <v>0.1727556857042131</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>336</v>
@@ -4668,19 +4668,19 @@
         <v>187845</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>167032</v>
+        <v>168073</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>207418</v>
+        <v>207701</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1161705521420127</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1032989107583695</v>
+        <v>0.1039424521965869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1282753429142347</v>
+        <v>0.1284502466083355</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>68592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56342</v>
+        <v>56570</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83674</v>
+        <v>82347</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09611688732438781</v>
+        <v>0.09611688732438782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07895029810417634</v>
+        <v>0.07926963199412468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.117250001790881</v>
+        <v>0.1153911255680563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>292</v>
@@ -4718,19 +4718,19 @@
         <v>153924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137950</v>
+        <v>137104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170221</v>
+        <v>171498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1703935237262024</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1527110640703392</v>
+        <v>0.1517740103642534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1884340228817766</v>
+        <v>0.1898481916975579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>392</v>
@@ -4739,19 +4739,19 @@
         <v>222516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202155</v>
+        <v>203364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243538</v>
+        <v>244845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.137612379499783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1250204141399238</v>
+        <v>0.1257681416093145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1506132021865104</v>
+        <v>0.1514211111135787</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>596811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>578657</v>
+        <v>578677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612159</v>
+        <v>610870</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8362973283168991</v>
+        <v>0.8362973283168993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8108580420035443</v>
+        <v>0.8108872176854679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8578046628765015</v>
+        <v>0.855997802904096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1157</v>
@@ -4789,19 +4789,19 @@
         <v>609806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587768</v>
+        <v>588378</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>628787</v>
+        <v>629903</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.675054302504561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6506583420956371</v>
+        <v>0.6513341156984177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6960666795961227</v>
+        <v>0.6973016740830115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2002</v>
@@ -4810,19 +4810,19 @@
         <v>1206617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1178500</v>
+        <v>1178088</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1234856</v>
+        <v>1233805</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7462170683582044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7288286903715335</v>
+        <v>0.7285736905424667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7636816633682177</v>
+        <v>0.7630314826458122</v>
       </c>
     </row>
     <row r="15">
